--- a/RESULTS/Section 4.3/groundtruth_results_en.xlsx
+++ b/RESULTS/Section 4.3/groundtruth_results_en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,15 +473,15 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-62.35968032093918</v>
+        <v>4.193026965503968</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.000000000000</t>
+          <t>0.000071712258</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-219</v>
+        <v>1.869331015836096</v>
       </c>
     </row>
     <row r="3">
@@ -501,15 +501,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>Indexes</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.193026965503968</v>
+        <v>-18.15582301780313</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.000071712258</t>
+          <t>0.000000000000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.869331015836096</v>
+        <v>-638.5826499449554</v>
       </c>
     </row>
     <row r="4">
@@ -529,15 +529,15 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Function words</t>
+          <t>Letters</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-5.118552802480382</v>
+        <v>-5.32126071122836</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.000001240861</t>
+          <t>0.000000451835</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.0004868362043281909</v>
+        <v>-0.001454911388067987</v>
       </c>
     </row>
     <row r="5">
@@ -557,15 +557,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Indexes</t>
+          <t>Punctuation</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-18.15582301780313</v>
+        <v>-5.327845847264404</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.000000000000</t>
+          <t>0.000000374761</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-638.5826499449554</v>
+        <v>-0.001038611566991879</v>
       </c>
     </row>
     <row r="6">
@@ -613,24 +613,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Punctuation</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-5.327845847264404</v>
+        <v>2.472802896851884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.000000374761</t>
+          <t>0.015195208041</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Highly Significant</t>
+          <t>Significant</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.001038611566991879</v>
+        <v>0.177497317873082</v>
       </c>
     </row>
     <row r="8">
@@ -641,24 +641,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>Function words</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.472802896851884</v>
+        <v>-5.118552802480382</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.015195208041</t>
+          <t>0.000001240861</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Significant</t>
+          <t>Highly Significant</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.177497317873082</v>
+        <v>-0.0004868362043281909</v>
       </c>
     </row>
     <row r="9">
@@ -669,43 +669,43 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Other Features</t>
+          <t>Numbers</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.800727268271327</v>
+        <v>1.328138461039664</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.005872478036</t>
+          <t>0.186400714163</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Highly Significant</t>
+          <t>Not Significant</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0008385997337050631</v>
+        <v>0.006183489104453266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Queneau_ref vs Queneau_gen</t>
+          <t>Feneon_ref vs Queneau_gen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Letters</t>
+          <t>Structural</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-5.32126071122836</v>
+        <v>4.147606195723885</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.000000451835</t>
+          <t>0.000057193884</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -714,26 +714,26 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-0.001454911388067987</v>
+        <v>0.5339516746388488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Queneau_ref vs Queneau_gen</t>
+          <t>Feneon_ref vs Queneau_gen</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Numbers</t>
+          <t>Indexes</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.328138461039664</v>
+        <v>1.69954272643086</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.186400714163</t>
+          <t>0.091455763127</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -742,35 +742,35 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.006183489104453266</v>
+        <v>67.61067444662422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Queneau_ref vs Queneau_gen</t>
+          <t>Feneon_ref vs Queneau_gen</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>text_id</t>
+          <t>Letters</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>-6.078157073799479</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.000000000000</t>
+          <t>0.000000010433</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Not Significant</t>
+          <t>Highly Significant</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.001883426952475654</v>
       </c>
     </row>
     <row r="13">
@@ -781,24 +781,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>Punctuation</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-20.78656010697973</v>
+        <v>-0.6881206213851467</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.000000000000</t>
+          <t>0.492562470693</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Highly Significant</t>
+          <t>Not Significant</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-73</v>
+        <v>-0.000155805011576084</v>
       </c>
     </row>
     <row r="14">
@@ -809,15 +809,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Structural</t>
+          <t>TAG</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4.147606195723885</v>
+        <v>7.053747288129914</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.000057193884</t>
+          <t>0.000000000075</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.5339516746388488</v>
+        <v>0.267419245729748</v>
       </c>
     </row>
     <row r="15">
@@ -837,15 +837,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Function words</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-8.086454468937944</v>
+        <v>5.198731596449358</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.000000000000</t>
+          <t>0.000000818268</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-0.0009343893458050375</v>
+        <v>0.2579908675799087</v>
       </c>
     </row>
     <row r="16">
@@ -865,24 +865,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Indexes</t>
+          <t>Function words</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.69954272643086</v>
+        <v>-8.086454468937944</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.091455763127</t>
+          <t>0.000000000000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Not Significant</t>
+          <t>Highly Significant</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>67.61067444662422</v>
+        <v>-0.0009343893458050375</v>
       </c>
     </row>
     <row r="17">
@@ -893,192 +893,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TAG</t>
+          <t>Numbers</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>7.053747288129914</v>
+        <v>2.011576279521369</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.000000000075</t>
+          <t>0.046408495312</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Highly Significant</t>
+          <t>Significant</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.267419245729748</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Feneon_ref vs Queneau_gen</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Punctuation</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>-0.6881206213851467</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.492562470693</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Not Significant</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.000155805011576084</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Feneon_ref vs Queneau_gen</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>NER</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>5.198731596449358</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.000000818268</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Highly Significant</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>0.2579908675799087</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Feneon_ref vs Queneau_gen</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Other Features</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0.3461588728371071</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.729729613218</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Not Significant</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>8.76655431811819e-05</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Feneon_ref vs Queneau_gen</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Letters</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>-6.078157073799479</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.000000010433</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Highly Significant</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.001883426952475654</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Feneon_ref vs Queneau_gen</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Numbers</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>2.011576279521369</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.046408495312</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Significant</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
         <v>0.01012054867125877</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Feneon_ref vs Queneau_gen</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>text_id</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.000000000000</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Not Significant</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
